--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:11 AM</t>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 10:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>26.73</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:13 AM</t>
+    <t>Wednesday, 24 September, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>0:1</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
   </si>
   <si>
     <t>Wednesday, 24 September, 2025 10:29 AM</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>26.73</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>75.730000000000004</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -74,7 +74,19 @@
     <t>49.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:29 AM</t>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,38 +781,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>75.730000000000004</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>106.73</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +864,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>NO-MIGRAIN 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -86,7 +95,7 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:33 AM</t>
+    <t>Wednesday, 24 September, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +802,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,49 +812,82 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>106.73</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>137.41999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +911,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -95,7 +95,7 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:39 AM</t>
+    <t>Wednesday, 24 September, 2025 10:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -95,7 +107,7 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:40 AM</t>
+    <t>Wednesday, 24 September, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,7 +781,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -779,14 +791,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -802,7 +814,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -812,14 +824,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -828,14 +840,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -852,42 +864,75 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>137.41999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>30</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>184.94</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -916,10 +961,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -107,7 +107,19 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 11:43 AM</t>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 11:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -901,38 +913,71 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>184.94</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>260.83999999999997</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -119,7 +131,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 11:49 AM</t>
+    <t>Wednesday, 24 September, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +805,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -803,14 +815,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -826,7 +838,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,14 +848,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -859,7 +871,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,14 +881,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,14 +897,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -909,7 +921,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,42 +954,75 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>260.83999999999997</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>37</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>38</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>286.83999999999997</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1061,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -131,7 +131,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 12:57 PM</t>
+    <t>Wednesday, 24 September, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -122,16 +122,13 @@
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>230.00</t>
   </si>
   <si>
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 12:58 PM</t>
+    <t>Wednesday, 24 September, 2025 1:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -970,7 +967,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -980,11 +977,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -998,7 +995,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c t="s" r="A15" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1006,13 +1003,13 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c t="s" r="G15" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c t="s" r="K15" s="17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NO-MIGRAIN 30 F.C. TAB</t>
   </si>
   <si>
@@ -128,7 +137,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 1:20 PM</t>
+    <t>Wednesday, 24 September, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -901,7 +910,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -934,7 +943,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -944,14 +953,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -960,14 +969,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -984,42 +993,75 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>286.83999999999997</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>40</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>41</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>324.45999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1105,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 1:21 PM</t>
+    <t>Wednesday, 24 September, 2025 2:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -86,12 +98,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -137,7 +158,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 2:01 PM</t>
+    <t>Wednesday, 24 September, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -844,7 +865,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -854,14 +875,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -877,7 +898,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -910,7 +931,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -920,11 +941,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -936,14 +957,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,14 +974,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,14 +990,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -993,7 +1014,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1009,7 +1030,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1030,38 +1051,104 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>324.45999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>43</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>399.69999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1197,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -86,6 +86,24 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -98,12 +116,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DIVITON-D 200 I.U./DROP ORAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -158,7 +182,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 2:07 PM</t>
+    <t>Wednesday, 24 September, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,24 +922,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,14 +948,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -941,14 +965,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,7 +981,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -974,11 +998,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>30</v>
@@ -990,7 +1014,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1007,11 +1031,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1023,14 +1047,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,14 +1064,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,14 +1080,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1073,14 +1097,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1089,14 +1113,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1106,49 +1130,115 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>399.69999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>30</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>494.69999999999999</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1297,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 2:39 PM</t>
+    <t>Wednesday, 24 September, 2025 2:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -161,6 +170,18 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -182,7 +203,16 @@
     <t>75.9000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 2:40 PM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1051,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1038,7 +1068,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1071,7 +1101,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1104,7 +1134,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1120,7 +1150,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1153,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,14 +1209,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1207,38 +1237,137 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>494.69999999999999</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>26</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>27</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>531.86000000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1436,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -212,7 +224,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 3:08 PM</t>
+    <t>Wednesday, 24 September, 2025 3:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1315,7 +1327,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1325,49 +1337,82 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>531.86000000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>26</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>27</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>591.86000000000001</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1496,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -224,7 +233,16 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 3:25 PM</t>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1327,24 +1345,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,14 +1371,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1381,38 +1399,104 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>591.86000000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>71</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>26</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>27</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>72</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>58</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>27</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>653.69000000000005</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>78</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>79</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1585,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 4:35 PM</t>
+    <t>Wednesday, 24 September, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACTRAPID HM 100 I.U./ML 5*3ML PENFILLS</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>338.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -125,6 +137,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>396.0000</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -242,7 +263,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 4:45 PM</t>
+    <t>Wednesday, 24 September, 2025 4:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -933,7 +954,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -942,14 +963,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,14 +980,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -975,20 +996,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -999,7 +1020,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1008,31 +1029,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1048,7 +1069,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1065,7 +1086,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1074,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1091,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,28 +1128,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1140,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,14 +1178,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1173,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1190,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1206,7 +1227,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1223,11 +1244,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1239,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1263,7 +1284,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1279,7 +1300,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1329,7 +1350,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1345,7 +1366,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1355,11 +1376,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1371,20 +1392,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1395,7 +1416,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1411,13 +1432,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1428,7 +1449,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1444,59 +1465,125 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>653.69000000000005</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>77</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>31</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>32</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>65</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>32</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1387.6900000000001</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1595,10 +1682,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -89,36 +89,51 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CERELAC قمح ولبن</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -182,15 +197,21 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>NO-MIGRAIN 30 F.C. TAB</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -245,6 +266,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -263,7 +296,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 4:49 PM</t>
+    <t>Wednesday, 24 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,18 +1075,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,31 +1095,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1102,7 +1135,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1112,14 +1145,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,28 +1161,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1161,31 +1194,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,7 +1260,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1244,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,7 +1293,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1277,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,11 +1343,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1326,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1359,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1432,7 +1465,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,20 +1491,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1482,7 +1515,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1498,13 +1531,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1515,7 +1548,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1531,59 +1564,158 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1387.6900000000001</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>36</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>35</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>36</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>72</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>36</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1444.3800000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1824,25 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 5:32 PM</t>
+    <t>Wednesday, 24 September, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -161,12 +161,18 @@
     <t>396.0000</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>19.8000</t>
   </si>
   <si>
@@ -245,12 +251,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
-    <t>230.00</t>
-  </si>
-  <si>
     <t>75.9000</t>
   </si>
   <si>
@@ -266,6 +278,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>50.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -296,7 +320,16 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 5:36 PM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1267,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1251,7 +1284,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1267,7 +1300,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1277,14 +1310,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1293,7 +1326,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1310,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,7 +1359,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1343,14 +1376,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1359,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,11 +1409,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1392,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,11 +1442,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1425,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,11 +1475,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1458,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,14 +1508,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1491,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,7 +1557,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1541,11 +1574,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1557,14 +1590,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,11 +1607,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1590,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,14 +1656,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1673,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1656,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,49 +1706,181 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>94</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>36</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1444.3800000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>96</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>35</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>36</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>98</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>74</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>36</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>101</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>35</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>36</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>104</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1762.98</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>106</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>107</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>108</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +2004,30 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -101,16 +101,31 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>81.00</t>
   </si>
   <si>
-    <t>26.7300</t>
+    <t>53.4600</t>
   </si>
   <si>
     <t>CERELAC قمح ولبن</t>
@@ -140,9 +155,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIVITON-D 200 I.U./DROP ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -161,6 +173,21 @@
     <t>396.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -260,6 +287,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -281,13 +317,13 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>50.6000</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>-6:-10</t>
+  </si>
+  <si>
+    <t>1890.6000</t>
+  </si>
+  <si>
+    <t>8:4</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -308,7 +344,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>لزق حبوب</t>
@@ -329,7 +365,16 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 6:14 PM</t>
+    <t>مجموعه لونا 3 قطع</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1119,7 +1164,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,20 +1173,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1152,7 +1197,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,18 +1219,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1201,7 +1246,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,28 +1272,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1260,28 +1305,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1293,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1355,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1343,14 +1388,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,7 +1437,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1409,11 +1454,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1425,14 +1470,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,11 +1520,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1491,14 +1536,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,11 +1553,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1524,14 +1569,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,11 +1619,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1590,28 +1635,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1623,7 +1668,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1640,11 +1685,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1656,28 +1701,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1689,31 +1734,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,31 +1767,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1762,21 +1807,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1788,31 +1833,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1821,66 +1866,198 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1762.98</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>106</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>107</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>108</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>40</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>41</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>110</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>112</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>83</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>41</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>113</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>115</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>40</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>41</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>116</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>83</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>41</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>119</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>3965.1900000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>121</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>122</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>123</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2024,10 +2201,30 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OVUNHIPITA 75MCG 28 TABLETS</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -314,6 +323,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -347,6 +362,18 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>لزق حبوب</t>
   </si>
   <si>
@@ -374,7 +401,10 @@
     <t>150.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:11 PM</t>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1705,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1692,7 +1722,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1708,13 +1738,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1725,7 +1755,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,7 +1777,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1774,7 +1804,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,14 +1814,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,31 +1830,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,14 +1880,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,11 +1913,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1899,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,14 +1946,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,14 +1962,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1979,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1965,7 +1995,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1982,14 +2012,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,14 +2028,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2022,42 +2052,174 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>83</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>41</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>122</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>3965.1900000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>121</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>122</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>123</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>124</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>40</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>41</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>125</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>83</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>41</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>128</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>83</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>41</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>112</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>4146.1899999999996</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>131</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>132</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>133</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2221,10 +2383,30 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -377,12 +389,6 @@
     <t>لزق حبوب</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -404,7 +410,13 @@
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:20 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,7 +2014,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,14 +2024,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2028,14 +2040,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2049,10 +2061,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2068,7 +2080,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,14 +2106,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,11 +2123,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2127,14 +2139,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2144,11 +2156,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2160,7 +2172,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2177,49 +2189,115 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>4146.1899999999996</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>131</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>132</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>83</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>41</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>112</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>133</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>111</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>41</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>123</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>4226.1899999999996</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>135</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2403,10 +2481,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:29 PM</t>
+    <t>Wednesday, 24 September, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:30 PM</t>
+    <t>Wednesday, 24 September, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -119,13 +119,13 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
-    <t>53.4600</t>
+    <t>296.4600</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>CERELAC قمح ولبن</t>
@@ -233,144 +233,150 @@
     <t>MAALOX 20 ORAL SACHET SUSP.</t>
   </si>
   <si>
-    <t>2:12</t>
+    <t>0:12</t>
   </si>
   <si>
     <t>120.00</t>
   </si>
   <si>
+    <t>246.0000</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>NO-MIGRAIN 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OVUNHIPITA 75MCG 28 TABLETS</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>-6:-10</t>
+  </si>
+  <si>
+    <t>1890.6000</t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>NO-MIGRAIN 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OVUNHIPITA 75MCG 28 TABLETS</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>RYLTRIS</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>-6:-10</t>
-  </si>
-  <si>
-    <t>1890.6000</t>
-  </si>
-  <si>
-    <t>8:4</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>3:0</t>
   </si>
   <si>
@@ -416,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:55 PM</t>
+    <t>Wednesday, 24 September, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1228,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1232,14 +1238,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1602,7 +1608,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1611,7 +1617,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1644,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1677,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1710,7 +1716,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1727,11 +1733,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1743,7 +1749,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1760,11 +1766,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1776,7 +1782,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1793,11 +1799,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1809,7 +1815,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1826,11 +1832,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1842,7 +1848,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1859,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1875,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,11 +1898,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,11 +2030,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2057,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,11 +2096,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>23</v>
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2123,11 +2129,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2139,7 +2145,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2189,11 +2195,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2238,14 +2244,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2255,11 +2261,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2267,13 +2273,13 @@
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="P44" s="13">
-        <v>4226.1899999999996</v>
+        <v>4709.1899999999996</v>
       </c>
       <c r="Q44" s="13"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c t="s" r="A45" s="14">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -2281,13 +2287,13 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c t="s" r="G45" s="15">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
       <c t="s" r="K45" s="17">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>CERELAC قمح ولبن</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -290,6 +299,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>RYLTRIS</t>
   </si>
   <si>
@@ -422,7 +440,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 7:57 PM</t>
+    <t>Wednesday, 24 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1113,7 +1131,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1122,14 +1140,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1139,14 +1157,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1179,7 +1197,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1212,7 +1230,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1221,14 +1239,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1261,24 +1279,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1287,31 +1305,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1344,7 +1362,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1360,13 +1378,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1393,24 +1411,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1419,14 +1437,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1459,7 +1477,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1542,7 +1560,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1575,7 +1593,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1756,7 +1774,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1773,7 +1791,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1789,13 +1807,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1806,7 +1824,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1822,13 +1840,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1839,7 +1857,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1855,24 +1873,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1881,20 +1899,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1921,24 +1939,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1960,18 +1978,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1993,15 +2011,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2013,31 +2031,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,31 +2064,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,31 +2097,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,31 +2130,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,28 +2196,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2218,21 +2236,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2244,66 +2262,132 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>4709.1899999999996</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>137</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>138</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>139</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>87</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>44</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>119</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>141</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>118</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>44</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>131</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>4787.9799999999996</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>143</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>144</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>145</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2497,10 +2581,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -164,6 +173,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DIVITON-D 200 I.U./DROP ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -206,6 +224,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -230,6 +254,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -392,10 +425,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>فرش اسنان HASI</t>
@@ -440,7 +470,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:08 PM</t>
+    <t>Wednesday, 24 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1164,7 +1194,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1173,14 +1203,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,14 +1220,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1213,7 +1243,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1223,14 +1253,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1239,14 +1269,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1256,14 +1286,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1272,14 +1302,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,14 +1319,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1305,31 +1335,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,31 +1368,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1371,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1395,7 +1425,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1411,13 +1441,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1428,7 +1458,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1444,7 +1474,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1484,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,28 +1500,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1503,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1550,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1566,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,14 +1583,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,7 +1599,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1586,14 +1616,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1609,7 +1639,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1649,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1665,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1682,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,14 +1698,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1715,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1731,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1748,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1781,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1847,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,31 +1863,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,28 +1896,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1899,7 +1929,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1916,11 +1946,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1932,7 +1962,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1949,14 +1979,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1972,24 +2002,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,28 +2028,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2038,24 +2068,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,31 +2094,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,28 +2127,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2130,31 +2160,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,31 +2193,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,28 +2226,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2229,28 +2259,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2262,31 +2292,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,66 +2358,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>4787.9799999999996</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>143</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>144</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>47</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>145</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>147</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>98</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>47</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>148</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>98</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>47</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>130</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>129</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>47</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>141</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>5030.8800000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>153</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>154</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>155</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2591,10 +2753,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -470,7 +479,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:18 PM</t>
+    <t>Wednesday, 24 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1682,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,7 +1731,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,7 +1764,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,7 +1797,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,11 +1889,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1969,7 +1978,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2002,13 +2011,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2035,7 +2044,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2074,7 +2083,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2101,7 +2110,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,11 +2285,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2431,7 +2440,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2464,7 +2473,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2474,11 +2483,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,49 +2516,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>5030.8800000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>153</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>154</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>132</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>47</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>144</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>5119.9799999999996</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2773,10 +2815,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -200,6 +209,15 @@
     <t>396.0000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -233,6 +251,15 @@
     <t>89.1000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -263,6 +290,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>LIMITLESS LIPOFERREX 40MG 30 TABS</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -314,9 +350,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -374,6 +407,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -419,9 +461,6 @@
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -479,7 +518,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:19 PM</t>
+    <t>Wednesday, 24 September, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1417,7 +1456,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1427,14 +1466,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,20 +1482,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1467,7 +1506,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1483,13 +1522,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1500,7 +1539,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1516,13 +1555,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1549,24 +1588,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,11 +1631,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1608,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1648,7 +1687,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,7 +1713,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1691,11 +1730,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>41</v>
@@ -1707,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,11 +1763,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -1740,7 +1779,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1757,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1846,7 +1885,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,7 +1911,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1912,7 +1951,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1938,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2011,7 +2050,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,11 +2060,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>29</v>
@@ -2037,28 +2076,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2070,28 +2109,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2103,7 +2142,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2120,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2136,7 +2175,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2153,7 +2192,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2176,7 +2215,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2225,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2258,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2242,24 +2281,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,31 +2307,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,28 +2340,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2334,14 +2373,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,14 +2390,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,14 +2456,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2466,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2499,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,14 +2571,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,49 +2588,214 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>5119.9799999999996</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>156</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>159</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>67</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>47</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>150</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>47</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>161</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>67</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>47</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>164</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>166</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>67</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>47</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>147</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>146</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>47</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>157</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>158</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>5643.6800000000003</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>170</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>171</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2820,10 +3024,35 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -143,10 +143,10 @@
     <t>81.00</t>
   </si>
   <si>
-    <t>296.4600</t>
-  </si>
-  <si>
-    <t>3:2</t>
+    <t>323.1900</t>
+  </si>
+  <si>
+    <t>3:3</t>
   </si>
   <si>
     <t>CERELAC قمح ولبن</t>
@@ -446,6 +446,18 @@
     <t>8:4</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:34</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -518,7 +530,13 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:20 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>Wednesday, 24 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,7 +1408,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2496,7 +2514,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2512,7 +2530,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2595,7 +2613,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2611,7 +2629,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,11 +2672,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,11 +2705,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2703,7 +2721,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,49 +2771,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>5643.6800000000003</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>169</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>170</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>171</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>150</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>47</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>161</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>133</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>47</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>5704.9099999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>175</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>176</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>177</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,10 +3133,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -350,10 +350,13 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>OVUNHIPITA 75MCG 28 TABLETS</t>
@@ -536,7 +539,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:42 PM</t>
+    <t>Wednesday, 24 September, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,7 +2137,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2144,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2160,7 +2163,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2177,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2193,7 +2196,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2210,11 +2213,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2226,7 +2229,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2276,11 +2279,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2292,7 +2295,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2309,11 +2312,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2325,7 +2328,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2379,7 +2382,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2408,11 +2411,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>41</v>
@@ -2523,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,11 +2576,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2606,14 +2609,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,14 +2625,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2655,7 +2658,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2672,11 +2675,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2688,7 +2691,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2705,11 +2708,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2738,11 +2741,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2754,7 +2757,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2804,11 +2807,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2820,14 +2823,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -2849,13 +2852,13 @@
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="P58" s="13">
-        <v>5704.9099999999999</v>
+        <v>5735.9099999999999</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c t="s" r="A59" s="14">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2863,13 +2866,13 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c t="s" r="G59" s="15">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
       <c t="s" r="K59" s="17">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -440,25 +440,13 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>-6:-10</t>
-  </si>
-  <si>
-    <t>1890.6000</t>
-  </si>
-  <si>
-    <t>8:4</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:34</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>22.5000</t>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>1915.9000</t>
+  </si>
+  <si>
+    <t>8:6</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -539,7 +527,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 8:46 PM</t>
+    <t>Wednesday, 24 September, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2517,7 +2505,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2533,7 +2521,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,11 +2531,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2559,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,14 +2564,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,14 +2580,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2616,7 +2604,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2632,7 +2620,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2642,14 +2630,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,14 +2646,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2675,11 +2663,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2691,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2708,11 +2696,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2724,7 +2712,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2741,11 +2729,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2757,14 +2745,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,11 +2762,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2790,14 +2778,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,82 +2795,49 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>5738.71</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>172</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>173</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="A57" s="7">
-        <v>51</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c t="s" r="C57" s="8">
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
         <v>174</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c t="s" r="H57" s="9">
-        <v>134</v>
-      </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c t="s" r="L57" s="10">
-        <v>47</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c t="s" r="N57" s="8">
-        <v>175</v>
-      </c>
-      <c r="O57" s="8"/>
-      <c t="s" r="P57" s="11">
-        <v>159</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>5735.9099999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>176</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>177</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>178</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3141,15 +3096,10 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALZENTAL 200MG 6 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>COXORIZET CAPS</t>
   </si>
   <si>
@@ -272,6 +290,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>34:1</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -281,6 +311,9 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -408,6 +441,27 @@
   </si>
   <si>
     <t>75.9000</t>
+  </si>
+  <si>
+    <t>TRUEVERA SCRUB CREAM</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>VENTAMOR FACIAL WASH</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -1284,7 +1338,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1293,14 +1347,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1317,7 +1371,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1326,14 +1380,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1350,7 +1404,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1383,7 +1437,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1392,14 +1446,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1416,7 +1470,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1425,31 +1479,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1458,20 +1512,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1498,7 +1552,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1508,14 +1562,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1524,20 +1578,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1548,7 +1602,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1564,7 +1618,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1597,13 +1651,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1614,7 +1668,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1630,7 +1684,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,11 +1694,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1663,24 +1717,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1743,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,11 +1760,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1722,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1793,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,7 +1833,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1795,7 +1849,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1859,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1821,14 +1875,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1892,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,7 +1908,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1871,14 +1925,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1887,14 +1941,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1958,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1927,7 +1981,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,14 +1991,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1953,7 +2007,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1970,14 +2024,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +2040,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,14 +2057,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2019,14 +2073,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,14 +2090,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,14 +2106,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2123,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2102,14 +2156,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2151,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2168,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2184,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,14 +2255,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2217,31 +2271,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2250,31 +2304,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,7 +2337,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2300,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2316,7 +2370,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2333,14 +2387,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2356,24 +2410,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2389,21 +2443,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2415,28 +2469,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2455,24 +2509,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,28 +2535,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2514,28 +2568,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2547,31 +2601,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2634,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,28 +2667,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2646,28 +2700,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2679,31 +2733,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2712,28 +2766,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2752,21 +2806,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2778,66 +2832,297 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>174</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>175</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>176</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>5738.71</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>172</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>73</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>169</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>18</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>73</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>183</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>185</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>73</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>166</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>186</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>165</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>176</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>152</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>50</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>173</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>174</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>6170.9399999999996</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>190</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>191</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>192</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3096,10 +3381,45 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DIVITON-D 200 I.U./DROP ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -383,9 +404,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -410,6 +428,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 7 CAPS</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -464,6 +488,9 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -530,58 +557,64 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>مجموعه لونا 3 قطع</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>لزق حبوب</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>مجموعه لونا 3 قطع</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>معجون اسنان المسوك الصغير</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مناديل جيب مبلله </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>Wednesday, 24 September, 2025 8:47 PM</t>
+    <t>Wednesday, 24 September, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1717,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,11 +1727,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1710,28 +1743,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1743,20 +1776,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1764,7 +1797,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1776,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1826,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1842,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1833,7 +1866,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1892,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1908,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,11 +1958,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>33</v>
@@ -1941,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2014,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2024,11 +2057,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>33</v>
@@ -2040,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,11 +2090,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>33</v>
@@ -2073,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2123,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2106,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,7 +2172,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2156,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2172,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2229,7 +2262,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,11 +2288,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2271,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2361,7 +2394,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2377,7 +2410,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2394,7 +2427,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2410,13 +2443,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2427,7 +2460,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2443,13 +2476,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2460,7 +2493,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2486,11 +2519,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2502,24 +2535,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2542,13 +2575,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2581,15 +2614,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2601,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,11 +2651,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>33</v>
@@ -2634,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2717,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2700,31 +2733,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,20 +2766,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2754,10 +2787,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,28 +2799,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2799,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,14 +2915,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,11 +2948,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2964,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3014,14 +3047,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,14 +3063,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3047,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3063,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,49 +3113,181 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>77</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>50</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>193</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>77</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>50</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>175</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>174</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>50</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>186</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>161</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>50</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>199</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>6170.9399999999996</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>190</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>191</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>192</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>6322.7700000000004</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3416,10 +3581,30 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -521,13 +521,10 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>0:14</t>
-  </si>
-  <si>
-    <t>1915.9000</t>
-  </si>
-  <si>
-    <t>8:6</t>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -614,7 +611,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:01 PM</t>
+    <t>Wednesday, 24 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2919,10 +2916,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,11 +2945,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2964,7 +2961,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2981,11 +2978,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3014,14 +3011,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>182</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3080,11 +3077,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3113,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3129,7 +3126,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3146,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3162,7 +3159,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3179,11 +3176,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3195,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3228,7 +3225,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3245,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3257,13 +3254,13 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="P68" s="13">
-        <v>6322.7700000000004</v>
+        <v>4482.7700000000004</v>
       </c>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c t="s" r="A69" s="14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -3271,13 +3268,13 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c t="s" r="G69" s="15">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
       <c t="s" r="K69" s="17">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
+    <t>25.0000</t>
   </si>
   <si>
     <t>COXORIZET CAPS</t>
@@ -479,15 +479,6 @@
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -611,7 +602,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:13 PM</t>
+    <t>Wednesday, 24 September, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1639,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1665,7 +1656,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2737,7 +2728,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,11 +2738,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -2763,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2809,15 +2800,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2829,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2846,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2862,14 +2853,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2870,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2912,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2928,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2968,7 +2959,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2985,7 +2976,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,14 +2985,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,14 +3002,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3027,14 +3018,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,14 +3035,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3060,14 +3051,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3068,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3100,7 +3091,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,11 +3134,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,14 +3150,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,11 +3167,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3192,14 +3183,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,82 +3200,49 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c t="s" r="C67" s="8">
+      <c r="P67" s="13">
+        <v>4439.7700000000004</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>197</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c t="s" r="H67" s="9">
-        <v>161</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c t="s" r="L67" s="10">
-        <v>50</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c t="s" r="N67" s="8">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>198</v>
       </c>
-      <c r="O67" s="8"/>
-      <c t="s" r="P67" s="11">
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
         <v>199</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4482.7700000000004</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>200</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>201</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>202</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3593,15 +3551,10 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -602,7 +602,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:15 PM</t>
+    <t>Wednesday, 24 September, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>COXORIZET CAPS</t>
@@ -314,6 +314,15 @@
     <t>9.5000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -506,7 +515,10 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>حفاضات كبار سن</t>
@@ -602,7 +614,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:17 PM</t>
+    <t>Wednesday, 24 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,7 +1651,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1656,7 +1668,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2068,7 +2080,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2085,7 +2097,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2101,7 +2113,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2118,7 +2130,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2134,7 +2146,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2144,14 +2156,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2160,14 +2172,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2200,7 +2212,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2233,7 +2245,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2250,7 +2262,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,7 +2295,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2299,7 +2311,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2342,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2391,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2415,7 +2427,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2431,7 +2443,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2448,7 +2460,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2464,7 +2476,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2481,7 +2493,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2523,31 +2535,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2563,7 +2575,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2580,7 +2592,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2602,7 +2614,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2629,7 +2641,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,7 +2667,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,21 +2707,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2721,31 +2733,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2800,15 +2812,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2853,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2926,7 +2938,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>183</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3025,7 +3037,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3063,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3084,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3113,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3117,7 +3129,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3134,11 +3146,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3150,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3179,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3183,14 +3195,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,49 +3212,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>161</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>50</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>199</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>4439.7700000000004</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>197</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>198</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>199</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>4588.7700000000004</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3551,10 +3596,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -230,6 +230,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -419,6 +425,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>OVUNHIPITA 75MCG 28 TABLETS</t>
   </si>
   <si>
@@ -614,7 +629,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:23 PM</t>
+    <t>Wednesday, 24 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1783,24 +1798,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,28 +1824,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1874,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1890,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1907,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1923,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1940,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1956,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1973,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +1989,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,7 +2006,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2014,7 +2029,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2039,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2047,7 +2062,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2072,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2088,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2105,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2121,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2138,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2154,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,14 +2204,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,11 +2270,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,7 +2319,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,14 +2352,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2369,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2385,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2402,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,11 +2435,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2436,14 +2451,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2468,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2484,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,31 +2517,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,7 +2550,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2552,7 +2567,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2575,13 +2590,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2614,15 +2629,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2634,31 +2649,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,31 +2682,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,7 +2722,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2740,24 +2755,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,28 +2814,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2832,31 +2847,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2880,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3103,7 +3118,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,14 +3128,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3146,11 +3161,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,11 +3227,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3245,49 +3260,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>201</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>179</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>50</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>191</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>166</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>50</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>204</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4588.7700000000004</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>202</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>203</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>4673.6099999999997</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>206</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>207</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>208</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3601,10 +3682,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:33 PM</t>
+    <t>Wednesday, 24 September, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -572,10 +572,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>فرش اسنان HASI</t>
@@ -629,7 +629,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:34 PM</t>
+    <t>Wednesday, 24 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2854,7 +2854,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2868,10 +2868,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3338,7 +3338,7 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>4673.6099999999997</v>
+        <v>4692.4399999999996</v>
       </c>
       <c r="Q70" s="13"/>
     </row>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:36 PM</t>
+    <t>Wednesday, 24 September, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
     <t>89.1000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -347,6 +359,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -506,6 +527,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -515,6 +539,9 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -629,7 +656,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:39 PM</t>
+    <t>Wednesday, 24 September, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1627,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1633,7 +1660,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1643,14 +1670,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1659,14 +1686,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1683,7 +1710,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1699,13 +1726,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1716,7 +1743,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1732,24 +1759,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,14 +1785,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1798,7 +1825,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1808,14 +1835,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1824,31 +1851,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1864,21 +1891,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1911,10 +1938,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1963,7 +1990,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1980,7 +2007,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1996,7 +2023,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2013,7 +2040,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2029,7 +2056,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2066,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2095,7 +2122,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,11 +2132,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>33</v>
@@ -2121,7 +2148,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,11 +2198,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2204,11 +2231,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2220,14 +2247,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,11 +2264,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2260,7 +2287,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2293,13 +2320,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2326,7 +2353,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,14 +2363,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2352,7 +2379,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2369,14 +2396,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2385,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,11 +2495,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>33</v>
@@ -2484,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,31 +2544,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,28 +2643,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2649,31 +2676,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,31 +2709,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,7 +2742,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2732,11 +2759,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2748,28 +2775,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -2781,28 +2808,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2814,7 +2841,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2827,15 +2854,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2946,31 +2973,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,31 +3006,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,28 +3039,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3062,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3078,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3128,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,14 +3171,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,11 +3188,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3177,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,11 +3221,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3210,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3254,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,11 +3320,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3316,7 +3343,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3333,42 +3360,174 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>82</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>50</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>82</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>50</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>189</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>188</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>50</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>200</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>174</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>50</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>213</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4692.4399999999996</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>206</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>207</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>208</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4916.2700000000004</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>215</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>216</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>217</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3692,10 +3851,30 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -98,6 +98,21 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>CERELAC قمح ولبن</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DIVITON-D 200 I.U./DROP ORAL DROPS 10 ML</t>
   </si>
   <si>
@@ -281,12 +299,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>FERRODUONAL 30 CAP</t>
   </si>
   <si>
@@ -422,6 +434,15 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>NO-MIGRAIN 30 F.C. TAB</t>
   </si>
   <si>
@@ -656,7 +677,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:45 PM</t>
+    <t>Wednesday, 24 September, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,13 +1450,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1462,7 +1483,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1472,11 +1493,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>33</v>
@@ -1488,14 +1509,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1545,7 +1566,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1561,7 +1582,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1571,14 +1592,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1594,24 +1615,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1627,13 +1648,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1660,7 +1681,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1693,7 +1714,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1703,14 +1724,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1719,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1743,7 +1764,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1759,13 +1780,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1776,7 +1797,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1792,24 +1813,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1818,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1858,7 +1879,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1868,14 +1889,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1884,28 +1905,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,14 +1955,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1957,24 +1978,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,11 +2021,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,14 +2054,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2056,7 +2077,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,11 +2087,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2089,7 +2110,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2106,7 +2127,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2122,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2188,7 +2209,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2214,7 +2235,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,11 +2285,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,11 +2318,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2313,31 +2334,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2386,13 +2407,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2419,7 +2440,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,14 +2450,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2445,7 +2466,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,11 +2582,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,31 +2664,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2742,28 +2763,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2775,31 +2796,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2808,31 +2829,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2841,7 +2862,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2858,11 +2879,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2874,28 +2895,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -2907,28 +2928,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2940,7 +2961,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2953,15 +2974,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,11 +3044,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3039,28 +3060,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3072,31 +3093,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,31 +3159,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,28 +3192,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3204,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,31 +3258,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,31 +3291,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,28 +3324,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3336,7 +3357,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3349,18 +3370,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,20 +3390,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3393,7 +3414,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3409,21 +3430,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3442,21 +3463,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3468,66 +3489,165 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>88</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>30</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>196</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>195</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>30</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>207</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>181</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>30</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>220</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4916.2700000000004</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>215</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>216</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>217</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>5088.8299999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>222</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>223</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>224</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3871,10 +3991,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -284,9 +296,6 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -311,6 +320,15 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>GABIMASH 800 MG 30TABS. (N/A)</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -443,6 +461,9 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NO-MIGRAIN 30 F.C. TAB</t>
   </si>
   <si>
@@ -518,6 +539,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
   </si>
   <si>
@@ -554,60 +584,81 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>زيت الو ايفا200 ملل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>الويز كبير بالاجنحه</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -620,10 +671,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>فرش اسنان HASI</t>
@@ -632,9 +683,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -659,15 +707,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>مزيل عرق اكس اسبري</t>
+  </si>
+  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
@@ -677,7 +725,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:50 PM</t>
+    <t>Wednesday, 24 September, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1526,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1542,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1599,7 +1647,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1615,7 +1663,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1625,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1648,13 +1696,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1665,7 +1713,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1674,28 +1722,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1707,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1724,11 +1772,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1740,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1764,7 +1812,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1780,7 +1828,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1806,31 +1854,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1839,20 +1887,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1863,7 +1911,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1879,7 +1927,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1889,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1905,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,11 +1970,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1938,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1955,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1971,31 +2019,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2004,20 +2052,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2025,7 +2073,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2037,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2054,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2143,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2169,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2209,7 +2257,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,11 +2267,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>33</v>
@@ -2235,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,7 +2333,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2318,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2334,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2374,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2407,13 +2455,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2424,7 +2472,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2440,7 +2488,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,28 +2514,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,7 +2604,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2572,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2589,7 +2637,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2605,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>33</v>
@@ -2664,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>33</v>
@@ -2730,31 +2778,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,31 +2811,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,28 +2910,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2895,31 +2943,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2928,31 +2976,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,7 +3009,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2978,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2994,28 +3042,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -3027,28 +3075,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3060,28 +3108,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3093,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,7 +3207,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3176,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3192,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3232,24 +3280,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,28 +3339,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3324,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3357,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3374,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3456,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3521,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3489,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3554,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3522,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3555,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3588,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,49 +3653,280 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>5088.8299999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>222</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>223</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>224</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>92</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>30</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>216</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>18</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>30</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>227</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>229</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>92</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>30</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>230</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>92</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>30</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>180</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>92</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>30</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>205</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>204</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>30</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>209</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>215</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>30</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>236</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>5815.1099999999997</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>238</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>239</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>240</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4006,10 +4285,45 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:53 PM</t>
+    <t>Wednesday, 24 September, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -239,6 +239,18 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -506,6 +518,12 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -581,6 +599,15 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>YASMIN 0.03/3 MG 21 TABS.</t>
+  </si>
+  <si>
+    <t>205.00</t>
+  </si>
+  <si>
+    <t>205.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -671,12 +698,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 9:54 PM</t>
+    <t>Wednesday, 24 September, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1944,7 +1965,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1960,7 +1981,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,11 +2024,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,31 +2073,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,20 +2106,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2106,7 +2127,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2156,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2158,7 +2179,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>33</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,28 +2535,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2547,31 +2568,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2736,7 +2757,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2790,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,31 +2799,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,7 +2832,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2824,18 +2845,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -2884,7 +2905,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,31 +2931,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,28 +2964,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,31 +3030,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,28 +3063,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -3075,7 +3096,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3088,11 +3109,11 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3121,7 +3142,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3132,7 +3153,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3154,7 +3175,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3181,7 +3202,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3240,31 +3261,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,31 +3327,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,28 +3393,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,31 +3426,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3459,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,11 +3608,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,11 +3707,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3702,7 +3723,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3719,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3742,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3775,7 +3796,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3808,7 +3829,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,49 +3905,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>96</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>30</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>214</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>213</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>30</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>218</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>224</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>30</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>243</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>5815.1099999999997</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>238</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>239</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>240</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>6060.9899999999998</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4320,10 +4440,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>ITEM-N SHAMPOO 60ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -464,6 +473,24 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>MELOQUIN 4% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -476,6 +503,15 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
+    <t>NEW AKIM HAIR OIL 60ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>NO-MIGRAIN 30 F.C. TAB</t>
   </si>
   <si>
@@ -539,6 +575,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -599,6 +647,15 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>YASMIN 0.03/3 MG 21 TABS.</t>
   </si>
   <si>
@@ -623,12 +680,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -665,12 +716,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>زيت الو ايفا200 ملل</t>
   </si>
   <si>
@@ -731,6 +776,12 @@
     <t>مزيل عرق اكس اسبري</t>
   </si>
   <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>معجون اسنان المسوك الصغير</t>
   </si>
   <si>
@@ -746,7 +797,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:11 PM</t>
+    <t>Wednesday, 24 September, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2575,13 +2626,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2608,24 +2659,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2707,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2724,7 +2775,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2757,7 +2808,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2773,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2839,21 +2890,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2865,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,11 +2966,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -2931,31 +2982,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2964,28 +3015,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2997,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,28 +3081,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -3063,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,28 +3147,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3129,31 +3180,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,7 +3279,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3245,7 +3296,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3268,7 +3319,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>33</v>
@@ -3294,31 +3345,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,7 +3378,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3344,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3360,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3426,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,7 +3510,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3476,11 +3527,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3492,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3560,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,31 +3576,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,31 +3609,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,28 +3642,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3624,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3664,21 +3715,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3690,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3723,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3740,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>213</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3829,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3855,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3888,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3905,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3921,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3954,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3987,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,49 +4055,280 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>248</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>18</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>30</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>249</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>96</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>30</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>252</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>254</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>96</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>30</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>202</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>256</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>30</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>85</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>96</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>30</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>231</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>230</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>30</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>131</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>239</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>30</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>260</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>6060.9899999999998</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>246</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>247</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>6353.1300000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4737,45 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -638,6 +638,12 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VENTAMOR FACIAL WASH</t>
   </si>
   <si>
@@ -797,7 +803,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:21 PM</t>
+    <t>Wednesday, 24 September, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3550,24 +3556,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,31 +3582,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3622,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,7 +3648,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3715,7 +3721,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,28 +3747,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3913,7 +3919,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4137,7 +4143,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4210,7 +4216,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,49 +4292,82 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>261</v>
       </c>
-      <c t="s" r="Q93" s="12">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>241</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>30</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>262</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>6353.1300000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>6371.1300000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>264</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>265</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>266</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4811,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -263,6 +263,9 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -653,6 +656,12 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
@@ -749,6 +758,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -803,7 +815,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:44 PM</t>
+    <t>Wednesday, 24 September, 2025 10:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2083,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2114,11 +2126,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2163,31 +2175,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2196,28 +2208,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2279,14 +2291,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2368,7 +2380,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2411,11 +2423,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2427,14 +2439,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2444,11 +2456,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2658,28 +2670,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2691,31 +2703,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2731,7 +2743,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2819,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,7 +2835,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2988,31 +3000,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3028,21 +3040,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3094,7 +3106,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3153,7 +3165,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3166,18 +3178,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,28 +3198,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3219,31 +3231,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3252,28 +3264,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,28 +3363,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>33</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,28 +3429,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3516,7 +3528,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3582,31 +3594,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3622,24 +3634,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3747,7 +3759,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3764,11 +3776,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3787,24 +3799,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3820,24 +3832,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4011,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4117,7 +4129,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4150,7 +4162,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,11 +4172,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4216,7 +4228,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,11 +4304,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,49 +4337,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>235</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>30</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>132</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>244</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>30</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>266</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>6371.1300000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>264</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>265</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>266</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6401.3299999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>268</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>269</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>270</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4816,10 +4894,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -590,6 +590,15 @@
     <t>39.3600</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t xml:space="preserve">RELAX  CAPS</t>
   </si>
   <si>
@@ -626,6 +635,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -815,7 +833,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Wednesday, 24 September, 2025 10:45 PM</t>
+    <t>Wednesday, 24 September, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3409,7 +3427,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3436,7 +3454,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3453,7 +3471,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3469,13 +3487,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3502,7 +3520,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3535,7 +3553,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,11 +3629,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>33</v>
@@ -3627,28 +3645,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3693,31 +3711,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3799,7 +3817,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,7 +3843,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3842,11 +3860,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,31 +3876,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,31 +3909,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4030,7 +4048,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,11 +4058,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,11 +4091,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,7 +4107,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4162,7 +4180,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,7 +4239,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,11 +4256,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4261,7 +4279,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>97</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,11 +4322,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4320,7 +4338,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4337,11 +4355,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4370,11 +4388,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4403,49 +4421,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>270</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>241</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>30</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>132</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>250</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>30</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>272</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6401.3299999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>268</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>269</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>270</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6515.71</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>274</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>275</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>276</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4904,10 +4988,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:00 AM</t>
+    <t>Thursday, 25 September, 2025 12:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-24_00-00.xlsx
+++ b/DaySale_2025-09-24_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:02 AM</t>
+    <t>Thursday, 25 September, 2025 12:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
